--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43059,6 +43059,41 @@
         <v>43500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>130400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43094,6 +43094,41 @@
         <v>130400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>104800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43129,6 +43129,41 @@
         <v>104800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>123600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43164,6 +43164,41 @@
         <v>123600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>19400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>19400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>3600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>28500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>28500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>413600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>413600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>26600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43444,6 +43444,41 @@
         <v>26600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>660600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,76 @@
         <v>660600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>510000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,76 @@
         <v>510000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2079600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>160500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>160500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>510000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>510000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3166000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,43 @@
         <v>3166000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43726,6 +43726,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>660300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43761,6 +43761,76 @@
         <v>660300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2981800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>610200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,41 @@
         <v>610200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>166000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43866,6 +43866,41 @@
         <v>166000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5136300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89191,6 +89191,41 @@
         <v>5136300</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>116400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89226,6 +89226,41 @@
         <v>116400</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>395200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89261,6 +89261,41 @@
         <v>395200</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>4355500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89296,6 +89296,41 @@
         <v>4355500</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>907000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89331,6 +89331,41 @@
         <v>907000</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>1371700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89366,6 +89366,41 @@
         <v>1371700</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>14993100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89401,6 +89401,41 @@
         <v>14993100</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>9541200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89436,6 +89436,41 @@
         <v>9541200</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>10064100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89471,6 +89471,41 @@
         <v>10064100</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>28049400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89506,6 +89506,41 @@
         <v>28049400</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>15282700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89541,6 +89541,41 @@
         <v>15282700</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>6955300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89576,6 +89576,41 @@
         <v>6955300</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>28032500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89611,6 +89611,41 @@
         <v>28032500</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>17409400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89646,6 +89646,41 @@
         <v>17409400</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2549" t="n">
+        <v>17781800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7017.xlsx
+++ b/data/7017.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89681,6 +89681,41 @@
         <v>17781800</v>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>7017</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>KOMARK</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>24401900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
